--- a/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
+++ b/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="146">
   <si>
     <t>土地坐落</t>
   </si>
@@ -345,10 +345,22 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>神達電腦公司</t>
   </si>
   <si>
     <t>華南金控公司</t>
+  </si>
+  <si>
+    <t>2013-09-15</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -2363,13 +2375,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
@@ -2388,13 +2400,22 @@
       <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -2411,13 +2432,22 @@
       <c r="G2" s="2">
         <v>159410</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2433,6 +2463,15 @@
       </c>
       <c r="G3" s="2">
         <v>158880</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1805</v>
       </c>
     </row>
   </sheetData>
@@ -2450,13 +2489,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2464,10 +2503,10 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2478,10 +2517,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -2492,10 +2531,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -2506,10 +2545,10 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -2520,10 +2559,10 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
@@ -2534,10 +2573,10 @@
         <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
@@ -2548,10 +2587,10 @@
         <v>146</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
@@ -2562,10 +2601,10 @@
         <v>147</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -2576,10 +2615,10 @@
         <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -2590,10 +2629,10 @@
         <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -2604,10 +2643,10 @@
         <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>31</v>
@@ -2618,10 +2657,10 @@
         <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
@@ -2632,10 +2671,10 @@
         <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -2659,19 +2698,19 @@
         <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2679,22 +2718,22 @@
         <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2">
         <v>14747796</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
+++ b/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="148">
   <si>
     <t>土地坐落</t>
   </si>
@@ -345,6 +345,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -358,6 +361,9 @@
   </si>
   <si>
     <t>華南金控公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-09-15</t>
@@ -2375,13 +2381,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
@@ -2409,13 +2415,16 @@
       <c r="J1" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -2433,21 +2442,24 @@
         <v>159410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1805</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2465,12 +2477,15 @@
         <v>158880</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1805</v>
       </c>
     </row>
@@ -2489,13 +2504,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2503,10 +2518,10 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2517,10 +2532,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -2531,10 +2546,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -2545,10 +2560,10 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -2559,10 +2574,10 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
@@ -2573,10 +2588,10 @@
         <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
@@ -2587,10 +2602,10 @@
         <v>146</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
@@ -2601,10 +2616,10 @@
         <v>147</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -2615,10 +2630,10 @@
         <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -2629,10 +2644,10 @@
         <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -2643,10 +2658,10 @@
         <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>31</v>
@@ -2657,10 +2672,10 @@
         <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
@@ -2671,10 +2686,10 @@
         <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -2698,19 +2713,19 @@
         <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2718,22 +2733,22 @@
         <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2">
         <v>14747796</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
+++ b/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="153">
   <si>
     <t>土地坐落</t>
   </si>
@@ -348,6 +348,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -357,6 +360,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>神達電腦公司</t>
   </si>
   <si>
@@ -366,7 +375,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-09-15</t>
+  </si>
+  <si>
+    <t>tmp9f521</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -2381,13 +2396,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
@@ -2418,13 +2433,22 @@
       <c r="K1" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -2442,24 +2466,33 @@
         <v>159410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1805</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="2">
         <v>115</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2477,16 +2510,25 @@
         <v>158880</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1805</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="2">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2504,13 +2546,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2518,10 +2560,10 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2532,10 +2574,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -2546,10 +2588,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -2560,10 +2602,10 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -2574,10 +2616,10 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
@@ -2588,10 +2630,10 @@
         <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
@@ -2602,10 +2644,10 @@
         <v>146</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
@@ -2616,10 +2658,10 @@
         <v>147</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -2630,10 +2672,10 @@
         <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -2644,10 +2686,10 @@
         <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -2658,10 +2700,10 @@
         <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>31</v>
@@ -2672,10 +2714,10 @@
         <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
@@ -2686,10 +2728,10 @@
         <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -2713,19 +2755,19 @@
         <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2733,22 +2775,22 @@
         <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>14747796</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
+++ b/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
@@ -19,9 +19,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="153">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="157">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市鳥松區圓山段03530000地號</t>
+  </si>
+  <si>
+    <t>高雄市鳥松區圓山段03930000地號</t>
+  </si>
+  <si>
+    <t>高雄市小港區丹山段03150000地號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區光華段16290000地號</t>
+  </si>
+  <si>
+    <t>高雄市鳥松區圓山段03520000地號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段30330000地號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段27730000地號</t>
+  </si>
+  <si>
+    <t>高雄市小港區坪頂段00220015地號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段30480000地號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段27460001地號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段27490000地號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段27580000地號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段27590000地號</t>
+  </si>
+  <si>
+    <t>高雄市大樹區新水安段02300000地號</t>
+  </si>
+  <si>
+    <t>局雄市前鎮區愛群段27560000</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段27580001地號</t>
+  </si>
+  <si>
+    <t>高雄市苓雅區過田仔段06360000地號</t>
+  </si>
+  <si>
+    <t>高雄市苓雅區過田仔段06360018地號</t>
+  </si>
+  <si>
+    <t>高雄市苓雅區過田仔段06360019地號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區新生段15640002地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之1250</t>
+  </si>
+  <si>
+    <t>10000分之690</t>
+  </si>
+  <si>
+    <t>葉津鈴</t>
+  </si>
+  <si>
+    <t>廖瑞聞</t>
+  </si>
+  <si>
+    <t>民國75年5月</t>
+  </si>
+  <si>
+    <t>88年07月30日</t>
+  </si>
+  <si>
+    <t>94年04月26日</t>
+  </si>
+  <si>
+    <t>96年03月28日</t>
+  </si>
+  <si>
+    <t>102年04月15曰</t>
+  </si>
+  <si>
+    <t>76年03月09日</t>
+  </si>
+  <si>
+    <t>87年07月15日</t>
+  </si>
+  <si>
+    <t>89年07月15日</t>
+  </si>
+  <si>
+    <t>96年10月23日</t>
+  </si>
+  <si>
+    <t>98年11月03日</t>
+  </si>
+  <si>
+    <t>101年06</t>
+  </si>
+  <si>
+    <t>101年06月11曰</t>
+  </si>
+  <si>
+    <t>93年06月30日</t>
+  </si>
+  <si>
+    <t>民國100年2月</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝貝</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>1T1t■■■.■■!.貝買</t>
+  </si>
+  <si>
+    <t>r=±=*貝買</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>1649000</t>
+  </si>
+  <si>
+    <t>5440000</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-09-15</t>
+  </si>
+  <si>
+    <t>tmp9f521</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,190 +237,43 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市鳥松區圓山段0353-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市鳥松區圓山段0393-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市小港區丹山段0315-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區光華段1629-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市鳥松區圓山段0352-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段3033-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段2773-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市小港區坪頂段0022-0015 地號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段3048-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段2746-0001 地號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段2749-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段2758-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段2759-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市大樹區新水安段 0230-0000 地號</t>
-  </si>
-  <si>
-    <t>局雄市前鎮區愛群段2756-0000</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段2758-0001 地號</t>
-  </si>
-  <si>
-    <t>高雄市苓雅區過田仔段 0636-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市苓雅區過田仔段 0636-0018 地號</t>
-  </si>
-  <si>
-    <t>高雄市苓雅區過田仔段 0636-0019 地號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區新生段1564-0002 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 1250</t>
-  </si>
-  <si>
-    <t>10000分之 690</t>
-  </si>
-  <si>
-    <t>葉津鈴</t>
-  </si>
-  <si>
-    <t>廖瑞聞</t>
-  </si>
-  <si>
-    <t>民國75年 5月</t>
-  </si>
-  <si>
-    <t>88年07月 30日</t>
-  </si>
-  <si>
-    <t>94年04月 26日</t>
-  </si>
-  <si>
-    <t>96年03月 28日</t>
-  </si>
-  <si>
-    <t>102 年 04 月15曰</t>
-  </si>
-  <si>
-    <t>76年03月 09日</t>
-  </si>
-  <si>
-    <t>87年07月 15日</t>
-  </si>
-  <si>
-    <t>89年07月 15日</t>
-  </si>
-  <si>
-    <t>96年10月 23日</t>
-  </si>
-  <si>
-    <t>98年11月 03日</t>
-  </si>
-  <si>
-    <t>101 年 06</t>
-  </si>
-  <si>
-    <t>101 年 06 月11曰</t>
-  </si>
-  <si>
-    <t>93年06月 30'日</t>
-  </si>
-  <si>
-    <t>93年06月 30日</t>
-  </si>
-  <si>
-    <t>民國100 年2月</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝貝</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
-    <t>1 T-1't ■■■.■■! .• 貝買</t>
-  </si>
-  <si>
-    <t>r -=±=* 貝買</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>1’649，000</t>
-  </si>
-  <si>
-    <t>5’440，000</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區光華段04473-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市鳥松區圓山段00031-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段01335-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段01671 -000 建號</t>
-  </si>
-  <si>
-    <t>咼雄市前鎮區愛群段01344-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市苓雅區過田仔段 08646-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市大樹區無水寮段 00784-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區新生段01415-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段10573-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段10572-000 建號</t>
-  </si>
-  <si>
-    <t>94年04月 26曰</t>
-  </si>
-  <si>
-    <t>民國100 年12月</t>
-  </si>
-  <si>
-    <t>M ft ■■ 11 :■ 貝買</t>
+    <t>高雄市前鎮區光華段04473000建號</t>
+  </si>
+  <si>
+    <t>高雄市鳥松區圓山段00031000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段01335000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段01671000建號</t>
+  </si>
+  <si>
+    <t>咼雄市前鎮區愛群段01344000建號</t>
+  </si>
+  <si>
+    <t>高雄市苓雅區過田仔段08646000建號</t>
+  </si>
+  <si>
+    <t>高雄市大樹區無水寮段00784000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區新生段01415000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段10573000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段10572000建號</t>
+  </si>
+  <si>
+    <t>94年04月26曰</t>
+  </si>
+  <si>
+    <t>民國100年12月</t>
+  </si>
+  <si>
+    <t>Mft■■11:■貝買</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -255,19 +303,19 @@
     <t>臺灣銀行前鎮分行</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行前鎮分 行</t>
+    <t>臺灣中小企業銀行前鎮分行</t>
   </si>
   <si>
     <t>華南商業銀行前鎮分行</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行高雄分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行港都分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行三多分 行</t>
+    <t>兆豐國際商業銀行高雄分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行港都分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行三多分行</t>
   </si>
   <si>
     <t>高雄銀行灣內分行</t>
@@ -282,7 +330,7 @@
     <t>大眾商業銀行營業部</t>
   </si>
   <si>
-    <t>中國信託商業銀行高雄分 行</t>
+    <t>中國信託商業銀行高雄分行</t>
   </si>
   <si>
     <t>綜合存款</t>
@@ -321,16 +369,10 @@
     <t>桌津鈴</t>
   </si>
   <si>
-    <t>1’000，000</t>
-  </si>
-  <si>
-    <t>4，090</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>4090</t>
   </si>
   <si>
     <t>quantity</t>
@@ -345,27 +387,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>神達電腦公司</t>
   </si>
   <si>
@@ -375,15 +396,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-09-15</t>
-  </si>
-  <si>
-    <t>tmp9f521</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -426,13 +438,13 @@
     <t>防癌終身壽險</t>
   </si>
   <si>
-    <t>新得利年年外幣萬能壽險 (=)</t>
-  </si>
-  <si>
-    <t>新得利年年外幣萬能壽險 (三）</t>
-  </si>
-  <si>
-    <t>富美滿外幣率利變動型年金 保險</t>
+    <t>新得利年年外幣萬能壽險(=)</t>
+  </si>
+  <si>
+    <t>新得利年年外幣萬能壽險(三）</t>
+  </si>
+  <si>
+    <t>富美滿外幣率利變動型年金保險</t>
   </si>
   <si>
     <t>牛轉乾坤萬能壽險</t>
@@ -471,10 +483,10 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>高雄銀行 高雄市苓雅區三多一路171 號3樓</t>
-  </si>
-  <si>
-    <t>102年04月 17曰</t>
+    <t>高雄銀行高雄市苓雅區三多一路171號3樓</t>
+  </si>
+  <si>
+    <t>102年04月17曰</t>
   </si>
   <si>
     <t>購屋貸款</t>
@@ -836,13 +848,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,525 +876,966 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>182</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2">
         <v>805000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>657</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2">
         <v>4141000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>216</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2">
         <v>2993000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>137</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2">
         <v>9042000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>355</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2">
         <v>9883800</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2">
         <v>689400</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2">
         <v>3400000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H13" s="2">
         <v>2150000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H14" s="2">
         <v>4250000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>3928</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2">
         <v>3023970</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H16" s="2">
         <v>3104000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="2">
         <v>31</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>1125</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H19" s="2">
         <v>175000</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H20" s="2">
         <v>461000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H21" s="2">
         <v>360000</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1400,25 +1853,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1426,22 +1879,22 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2">
         <v>436</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2">
         <v>3953000</v>
@@ -1452,22 +1905,22 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2">
         <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2">
         <v>282000</v>
@@ -1478,22 +1931,22 @@
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2">
         <v>151</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2">
         <v>17500</v>
@@ -1504,25 +1957,25 @@
         <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2">
         <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1530,22 +1983,22 @@
         <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2">
         <v>161</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2">
         <v>600000</v>
@@ -1556,22 +2009,22 @@
         <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2">
         <v>698</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
         <v>569000</v>
@@ -1582,22 +2035,22 @@
         <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2">
         <v>123</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2">
         <v>436000</v>
@@ -1608,22 +2061,22 @@
         <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2">
         <v>26000</v>
@@ -1634,22 +2087,22 @@
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2">
         <v>132</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2">
         <v>550000</v>
@@ -1660,22 +2113,22 @@
         <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2">
         <v>191</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2">
         <v>750000</v>
@@ -1696,22 +2149,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1719,16 +2172,16 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1740,20 +2193,20 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1761,16 +2214,16 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1782,16 +2235,16 @@
         <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1803,16 +2256,16 @@
         <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1824,16 +2277,16 @@
         <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1845,16 +2298,16 @@
         <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2">
         <v>1902</v>
@@ -1868,16 +2321,16 @@
         <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1889,19 +2342,19 @@
         <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G10" s="2">
         <v>3800000</v>
@@ -1912,16 +2365,16 @@
         <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1933,16 +2386,16 @@
         <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1954,16 +2407,16 @@
         <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2">
         <v>1843</v>
@@ -1977,16 +2430,16 @@
         <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2">
         <v>71</v>
@@ -2000,16 +2453,16 @@
         <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2">
         <v>6</v>
@@ -2023,16 +2476,16 @@
         <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2044,16 +2497,16 @@
         <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2">
         <v>26054</v>
@@ -2067,16 +2520,16 @@
         <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2">
         <v>50000</v>
@@ -2090,16 +2543,16 @@
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -2111,16 +2564,16 @@
         <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2">
         <v>286</v>
@@ -2134,16 +2587,16 @@
         <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2">
         <v>4272</v>
@@ -2157,16 +2610,16 @@
         <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F22" s="2">
         <v>2709</v>
@@ -2180,16 +2633,16 @@
         <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2201,16 +2654,16 @@
         <v>100</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -2222,16 +2675,16 @@
         <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -2243,16 +2696,16 @@
         <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -2264,16 +2717,16 @@
         <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2">
         <v>50908</v>
@@ -2287,16 +2740,16 @@
         <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F28" s="2">
         <v>370</v>
@@ -2310,16 +2763,16 @@
         <v>105</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -2331,16 +2784,16 @@
         <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
@@ -2352,16 +2805,16 @@
         <v>107</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -2373,16 +2826,16 @@
         <v>108</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
@@ -2404,43 +2857,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2448,10 +2901,10 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2">
         <v>15941</v>
@@ -2460,28 +2913,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2">
         <v>159410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2">
         <v>1805</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="N2" s="2">
         <v>115</v>
@@ -2492,10 +2945,10 @@
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2">
         <v>15888</v>
@@ -2504,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2">
         <v>158880</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2">
         <v>1805</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="N3" s="2">
         <v>116</v>
@@ -2546,13 +2999,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2560,13 +3013,13 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2574,13 +3027,13 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2588,13 +3041,13 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2602,13 +3055,13 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2616,13 +3069,13 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2630,13 +3083,13 @@
         <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2644,13 +3097,13 @@
         <v>146</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2658,13 +3111,13 @@
         <v>147</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2672,13 +3125,13 @@
         <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2686,13 +3139,13 @@
         <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2700,13 +3153,13 @@
         <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2714,13 +3167,13 @@
         <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2728,13 +3181,13 @@
         <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2752,22 +3205,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2775,22 +3228,22 @@
         <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2">
         <v>14747796</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
+++ b/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>高雄市鳥松區圓山段03530000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>高雄市鳥松區圓山段03930000地號</t>
@@ -180,15 +183,15 @@
     <t>民國100年2月</t>
   </si>
   <si>
+    <t>貝貝</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>貝貝</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
     <t>1T1t■■■.■■!.貝買</t>
   </si>
   <si>
@@ -216,30 +219,12 @@
     <t>tmp9f521</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>高雄市前鎮區光華段04473000建號</t>
   </si>
   <si>
+    <t>94年04月26曰</t>
+  </si>
+  <si>
     <t>高雄市鳥松區圓山段00031000建號</t>
   </si>
   <si>
@@ -267,36 +252,21 @@
     <t>高雄市前鎮區愛群段10572000建號</t>
   </si>
   <si>
-    <t>94年04月26曰</t>
-  </si>
-  <si>
     <t>民國100年12月</t>
   </si>
   <si>
     <t>Mft■■11:■貝買</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行成功分行</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行三多分行</t>
   </si>
   <si>
@@ -333,9 +303,6 @@
     <t>中國信託商業銀行高雄分行</t>
   </si>
   <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
@@ -348,9 +315,6 @@
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -384,30 +348,18 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>神達電腦公司</t>
-  </si>
-  <si>
     <t>華南金控公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>百年長青終身壽險</t>
+  </si>
+  <si>
     <t>大都會國際人壽</t>
   </si>
   <si>
@@ -432,9 +384,6 @@
     <t>中華郵政</t>
   </si>
   <si>
-    <t>百年長青終身壽險</t>
-  </si>
-  <si>
     <t>防癌終身壽險</t>
   </si>
   <si>
@@ -463,21 +412,6 @@
   </si>
   <si>
     <t>一路發保險</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -848,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,945 +831,1018 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" s="2">
         <v>1805</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>182</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2">
+        <v>805000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" s="2">
         <v>1805</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>182</v>
+        <v>657</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H4" s="2">
-        <v>805000</v>
+        <v>4141000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" s="2">
         <v>1805</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>82.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>657</v>
+        <v>216</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="2">
-        <v>4141000</v>
+        <v>2993000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M5" s="2">
         <v>1805</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>137</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9042000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>216</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2993000</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M6" s="2">
         <v>1805</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>137</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="2">
-        <v>9042000</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="2">
         <v>1805</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>355</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" s="2">
         <v>1805</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>91</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2">
+        <v>9883800</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>355</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M9" s="2">
         <v>1805</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H10" s="2">
-        <v>9883800</v>
+        <v>689400</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" s="2">
         <v>1805</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="2">
-        <v>689400</v>
+        <v>3400000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M11" s="2">
         <v>1805</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H12" s="2">
-        <v>3400000</v>
+        <v>2150000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M12" s="2">
         <v>1805</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H13" s="2">
-        <v>2150000</v>
+        <v>4250000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M13" s="2">
         <v>1805</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>37</v>
+        <v>3928</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H14" s="2">
-        <v>4250000</v>
+        <v>3023970</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M14" s="2">
         <v>1805</v>
       </c>
       <c r="N14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="2">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3104000</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3928</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3023970</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M15" s="2">
         <v>1805</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="2">
-        <v>3104000</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M16" s="2">
         <v>1805</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="2">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1125</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M17" s="2">
         <v>1805</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.069</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>77.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>1125</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>60</v>
+      <c r="H18" s="2">
+        <v>175000</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M18" s="2">
         <v>1805</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.069</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H19" s="2">
-        <v>175000</v>
+        <v>461000</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M19" s="2">
         <v>1805</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.069</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>7.245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="2">
-        <v>461000</v>
+        <v>360000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M20" s="2">
         <v>1805</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
         <v>29</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="2">
-        <v>360000</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1805</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O21" s="2">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1852,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1853,284 +1860,258 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C1" s="1">
+        <v>436</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="H1" s="1">
+        <v>3953000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2">
-        <v>436</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="2">
-        <v>3953000</v>
+        <v>282000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2">
-        <v>282000</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2">
         <v>151</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="2">
-        <v>17500</v>
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="H5" s="2">
+        <v>600000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2">
-        <v>161</v>
+        <v>698</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H6" s="2">
-        <v>600000</v>
+        <v>569000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2">
-        <v>698</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H7" s="2">
-        <v>569000</v>
+        <v>436000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H8" s="2">
-        <v>436000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="2">
-        <v>26000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2">
+        <v>191</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="2">
-        <v>132</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H10" s="2">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="2">
-        <v>191</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="2">
         <v>750000</v>
       </c>
     </row>
@@ -2141,7 +2122,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2149,696 +2130,673 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>38</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>253340</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>253340</v>
+      <c r="G2" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>117</v>
+      <c r="G3" s="2">
+        <v>490800</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>490800</v>
+        <v>55366</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>55366</v>
+        <v>108393</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>108393</v>
+        <v>66164</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1902</v>
+      </c>
       <c r="G7" s="2">
-        <v>66164</v>
+        <v>57060</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1902</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>57060</v>
+        <v>34281</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>34281</v>
+        <v>3800000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>3800000</v>
+        <v>758</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>87</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>758</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1843</v>
+      </c>
       <c r="G12" s="2">
-        <v>7504</v>
+        <v>55290</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2">
-        <v>1843</v>
+        <v>71</v>
       </c>
       <c r="G13" s="2">
-        <v>55290</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2">
-        <v>1988</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="2">
-        <v>6</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>18</v>
+        <v>12178</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F16" s="2">
+        <v>26054</v>
+      </c>
       <c r="G16" s="2">
-        <v>12178</v>
+        <v>781620</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2">
-        <v>26054</v>
+        <v>50000</v>
       </c>
       <c r="G17" s="2">
-        <v>781620</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="2">
-        <v>50000</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>1500000</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
+        <v>96</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F19" s="2">
+        <v>286</v>
+      </c>
       <c r="G19" s="2">
-        <v>141</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
+        <v>97</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2">
-        <v>286</v>
+        <v>4272</v>
       </c>
       <c r="G20" s="2">
-        <v>8580</v>
+        <v>128160</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2">
-        <v>4272</v>
+        <v>2709</v>
       </c>
       <c r="G21" s="2">
-        <v>128160</v>
+        <v>105651</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="2">
-        <v>2709</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>105651</v>
+        <v>33088</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>33088</v>
+        <v>14892</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>14892</v>
+        <v>20089</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>20089</v>
+        <v>125564</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F26" s="2">
+        <v>50908</v>
+      </c>
       <c r="G26" s="2">
-        <v>125564</v>
+        <v>1572240</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="2">
-        <v>50908</v>
+        <v>370</v>
       </c>
       <c r="G27" s="2">
-        <v>1572240</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="2">
-        <v>370</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2">
-        <v>11100</v>
+        <v>30535</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
-        <v>30535</v>
+        <v>21572</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
-        <v>21572</v>
+        <v>36046</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
-        <v>36046</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1">
-        <v>108</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
         <v>75804</v>
       </c>
     </row>
@@ -2849,7 +2807,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2863,16 +2821,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2898,89 +2856,45 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
-        <v>15941</v>
+        <v>15888</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2">
-        <v>159410</v>
+        <v>158880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2">
         <v>1805</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N2" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>116</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2">
-        <v>15888</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="2">
-        <v>158880</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1805</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="2">
         <v>116</v>
       </c>
     </row>
@@ -2991,7 +2905,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2999,38 +2913,38 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
@@ -3038,27 +2952,27 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
@@ -3066,128 +2980,114 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>152</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3197,53 +3097,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="E1" s="1">
+        <v>14747796</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>162</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="2">
-        <v>14747796</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
+++ b/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市鳥松區圓山段03530000地號</t>
+  </si>
+  <si>
     <t>高雄市鳥松區圓山段03930000地號</t>
   </si>
   <si>
@@ -183,15 +186,15 @@
     <t>民國100年2月</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>貝貝</t>
   </si>
   <si>
     <t>拍賣</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>1T1t■■■.■■!.貝買</t>
   </si>
   <si>
@@ -222,36 +225,36 @@
     <t>高雄市前鎮區光華段04473000建號</t>
   </si>
   <si>
+    <t>高雄市鳥松區圓山段00031000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段01335000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段01671000建號</t>
+  </si>
+  <si>
+    <t>咼雄市前鎮區愛群段01344000建號</t>
+  </si>
+  <si>
+    <t>高雄市苓雅區過田仔段08646000建號</t>
+  </si>
+  <si>
+    <t>高雄市大樹區無水寮段00784000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區新生段01415000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段10573000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區愛群段10572000建號</t>
+  </si>
+  <si>
     <t>94年04月26曰</t>
   </si>
   <si>
-    <t>高雄市鳥松區圓山段00031000建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段01335000建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段01671000建號</t>
-  </si>
-  <si>
-    <t>咼雄市前鎮區愛群段01344000建號</t>
-  </si>
-  <si>
-    <t>高雄市苓雅區過田仔段08646000建號</t>
-  </si>
-  <si>
-    <t>高雄市大樹區無水寮段00784000建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區新生段01415000建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段10573000建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區愛群段10572000建號</t>
-  </si>
-  <si>
     <t>民國100年12月</t>
   </si>
   <si>
@@ -346,6 +349,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>神達電腦公司</t>
   </si>
   <si>
     <t>華南金控公司</t>
@@ -782,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -840,281 +846,281 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" s="2">
         <v>1805</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>59</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2">
-        <v>805000</v>
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" s="2">
         <v>1805</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>182</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>657</v>
+        <v>182</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2">
-        <v>4141000</v>
+        <v>805000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" s="2">
         <v>1805</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>82.125</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>216</v>
+        <v>657</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2">
-        <v>2993000</v>
+        <v>4141000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M5" s="2">
         <v>1805</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="Q5" s="2">
-        <v>216</v>
+        <v>82.125</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2">
-        <v>9042000</v>
+        <v>2993000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6" s="2">
         <v>1805</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>137</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>39</v>
@@ -1123,531 +1129,531 @@
         <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="H7" s="2">
+        <v>9042000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="2">
         <v>1805</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>68</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>355</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="2">
         <v>1805</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>355</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>91</v>
+        <v>355</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="2">
-        <v>9883800</v>
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" s="2">
         <v>1805</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>91</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H10" s="2">
-        <v>689400</v>
+        <v>9883800</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M10" s="2">
         <v>1805</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11" s="2">
-        <v>3400000</v>
+        <v>689400</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="2">
         <v>1805</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2">
-        <v>2150000</v>
+        <v>3400000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" s="2">
         <v>1805</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2">
-        <v>4250000</v>
+        <v>2150000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M13" s="2">
         <v>1805</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>3928</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H14" s="2">
-        <v>3023970</v>
+        <v>4250000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14" s="2">
         <v>1805</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>3928</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>32</v>
+        <v>3928</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="2">
-        <v>3104000</v>
+        <v>3023970</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="2">
         <v>1805</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>32</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3104000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M16" s="2">
         <v>1805</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>1125</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>52</v>
@@ -1659,189 +1665,242 @@
         <v>61</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M17" s="2">
         <v>1805</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
-        <v>0.069</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>77.625</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>40</v>
+        <v>1125</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="2">
-        <v>175000</v>
+        <v>57</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M18" s="2">
         <v>1805</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
         <v>0.069</v>
       </c>
       <c r="Q18" s="2">
-        <v>2.76</v>
+        <v>77.625</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H19" s="2">
-        <v>461000</v>
+        <v>175000</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" s="2">
         <v>1805</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
         <v>0.069</v>
       </c>
       <c r="Q19" s="2">
-        <v>7.245</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H20" s="2">
-        <v>360000</v>
+        <v>461000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M20" s="2">
         <v>1805</v>
       </c>
       <c r="N20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.069</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>7.245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="2">
+        <v>360000</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O20" s="2">
+      <c r="L21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="2">
         <v>35</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P21" s="2">
         <v>1</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q21" s="2">
         <v>29</v>
       </c>
     </row>
@@ -1852,99 +1911,180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2">
+        <v>436</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3953000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1">
+      <c r="O2" s="2">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>436</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1">
-        <v>3953000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>41</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>122</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="2">
-        <v>282000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>42</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="2">
-        <v>151</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>282000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="2">
+        <v>41</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2">
         <v>151</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>39</v>
@@ -1953,166 +2093,408 @@
         <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="H4" s="2">
+        <v>17500</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="2">
+        <v>42</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2">
+        <v>161</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="I6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="2">
+        <v>44</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>698</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2">
         <v>569000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="I7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="2">
+        <v>45</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
         <v>46</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>123</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="2">
+        <v>436000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="2">
+        <v>46</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="2">
+        <v>26000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="2">
+        <v>47</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2">
+        <v>132</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="2">
-        <v>436000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="2">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="2">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="2">
+        <v>550000</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="2">
         <v>48</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
         <v>132</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="2">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
         <v>49</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>191</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2">
         <v>750000</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1805</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="2">
+        <v>49</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2122,7 +2504,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2130,16 +2512,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -2148,70 +2530,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>105</v>
+      <c r="G2" s="2">
+        <v>253340</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>490800</v>
+      <c r="G3" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>55366</v>
+        <v>490800</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>83</v>
@@ -2220,107 +2602,105 @@
         <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>108393</v>
+        <v>55366</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>66164</v>
+        <v>108393</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1902</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>57060</v>
+        <v>66164</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1902</v>
+      </c>
       <c r="G8" s="2">
-        <v>34281</v>
+        <v>57060</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>3800000</v>
+        <v>34281</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>86</v>
@@ -2329,266 +2709,266 @@
         <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G10" s="2">
-        <v>758</v>
+        <v>3800000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>7504</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1843</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>55290</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2">
-        <v>71</v>
+        <v>1843</v>
       </c>
       <c r="G13" s="2">
-        <v>1988</v>
+        <v>55290</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2">
-        <v>18</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F15" s="2">
+        <v>6</v>
+      </c>
       <c r="G15" s="2">
-        <v>12178</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2">
-        <v>26054</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>781620</v>
+        <v>12178</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2">
-        <v>50000</v>
+        <v>26054</v>
       </c>
       <c r="G17" s="2">
-        <v>1500000</v>
+        <v>781620</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>50000</v>
+      </c>
       <c r="G18" s="2">
-        <v>141</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="2">
-        <v>286</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>8580</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2">
-        <v>4272</v>
+        <v>286</v>
       </c>
       <c r="G20" s="2">
-        <v>128160</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2">
-        <v>2709</v>
+        <v>4272</v>
       </c>
       <c r="G21" s="2">
-        <v>105651</v>
+        <v>128160</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>88</v>
@@ -2597,206 +2977,229 @@
         <v>97</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2709</v>
+      </c>
       <c r="G22" s="2">
-        <v>33088</v>
+        <v>105651</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>14892</v>
+        <v>33088</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>20089</v>
+        <v>14892</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>125564</v>
+        <v>20089</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="2">
-        <v>50908</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2">
-        <v>1572240</v>
+        <v>125564</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="2">
-        <v>370</v>
+        <v>50908</v>
       </c>
       <c r="G27" s="2">
-        <v>11100</v>
+        <v>1572240</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F28" s="2">
+        <v>370</v>
+      </c>
       <c r="G28" s="2">
-        <v>30535</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
-        <v>21572</v>
+        <v>30535</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
-        <v>36046</v>
+        <v>21572</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
+        <v>36046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>108</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
         <v>75804</v>
       </c>
     </row>
@@ -2807,7 +3210,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2821,13 +3224,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2856,45 +3259,89 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2">
-        <v>15888</v>
+        <v>15941</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2">
-        <v>158880</v>
+        <v>159410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2">
         <v>1805</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15888</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="2">
+        <v>158880</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="2">
+      <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1805</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="2">
         <v>116</v>
       </c>
     </row>
@@ -2905,7 +3352,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2913,24 +3360,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
@@ -2938,27 +3385,27 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
@@ -2966,41 +3413,41 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -3008,86 +3455,100 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
+        <v>151</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>152</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
+      <c r="B14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3097,30 +3558,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1">
         <v>14747796</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>162</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>134</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14747796</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
+++ b/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Mft■■11:■貝買</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>臺灣銀行成功分行</t>
@@ -1993,7 +1996,7 @@
         <v>3953000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>64</v>
@@ -2046,7 +2049,7 @@
         <v>282000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>64</v>
@@ -2099,7 +2102,7 @@
         <v>17500</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>64</v>
@@ -2152,7 +2155,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>64</v>
@@ -2205,7 +2208,7 @@
         <v>600000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>64</v>
@@ -2258,7 +2261,7 @@
         <v>569000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>64</v>
@@ -2311,7 +2314,7 @@
         <v>436000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>64</v>
@@ -2364,7 +2367,7 @@
         <v>26000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>64</v>
@@ -2417,7 +2420,7 @@
         <v>550000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>64</v>
@@ -2470,7 +2473,7 @@
         <v>750000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>64</v>
@@ -2512,13 +2515,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>39</v>
@@ -2533,13 +2536,13 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>39</v>
@@ -2554,20 +2557,20 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2575,13 +2578,13 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>39</v>
@@ -2596,16 +2599,16 @@
         <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -2617,13 +2620,13 @@
         <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>40</v>
@@ -2638,13 +2641,13 @@
         <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>40</v>
@@ -2659,13 +2662,13 @@
         <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>40</v>
@@ -2682,13 +2685,13 @@
         <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
@@ -2703,19 +2706,19 @@
         <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10" s="2">
         <v>3800000</v>
@@ -2726,13 +2729,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
@@ -2747,13 +2750,13 @@
         <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>40</v>
@@ -2768,13 +2771,13 @@
         <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>40</v>
@@ -2791,13 +2794,13 @@
         <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -2814,13 +2817,13 @@
         <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>40</v>
@@ -2837,13 +2840,13 @@
         <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>39</v>
@@ -2858,13 +2861,13 @@
         <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>39</v>
@@ -2881,13 +2884,13 @@
         <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>39</v>
@@ -2904,13 +2907,13 @@
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>40</v>
@@ -2925,13 +2928,13 @@
         <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>40</v>
@@ -2948,13 +2951,13 @@
         <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>40</v>
@@ -2971,13 +2974,13 @@
         <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>40</v>
@@ -2994,13 +2997,13 @@
         <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>39</v>
@@ -3015,13 +3018,13 @@
         <v>100</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>40</v>
@@ -3036,13 +3039,13 @@
         <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>40</v>
@@ -3057,13 +3060,13 @@
         <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>39</v>
@@ -3078,13 +3081,13 @@
         <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>40</v>
@@ -3101,13 +3104,13 @@
         <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>40</v>
@@ -3124,13 +3127,13 @@
         <v>105</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>40</v>
@@ -3145,13 +3148,13 @@
         <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>39</v>
@@ -3166,13 +3169,13 @@
         <v>107</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>39</v>
@@ -3187,13 +3190,13 @@
         <v>108</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>39</v>
@@ -3224,13 +3227,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3262,7 +3265,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -3274,13 +3277,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2">
         <v>159410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>64</v>
@@ -3306,7 +3309,7 @@
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -3318,13 +3321,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2">
         <v>158880</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>64</v>
@@ -3360,10 +3363,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
@@ -3374,10 +3377,10 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
@@ -3388,10 +3391,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
@@ -3402,10 +3405,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
@@ -3416,10 +3419,10 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
@@ -3430,10 +3433,10 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -3444,10 +3447,10 @@
         <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -3458,10 +3461,10 @@
         <v>146</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
@@ -3472,10 +3475,10 @@
         <v>147</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>40</v>
@@ -3486,10 +3489,10 @@
         <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>40</v>
@@ -3500,10 +3503,10 @@
         <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>40</v>
@@ -3514,10 +3517,10 @@
         <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
@@ -3528,10 +3531,10 @@
         <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
@@ -3542,10 +3545,10 @@
         <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>40</v>
@@ -3566,22 +3569,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1">
         <v>14747796</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3589,22 +3592,22 @@
         <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2">
         <v>14747796</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
+++ b/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="139">
   <si>
     <t>name</t>
   </si>
@@ -264,63 +264,72 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行成功分行</t>
   </si>
   <si>
+    <t>臺灣銀行三多分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行前鎮分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行前鎮分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行前鎮分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行高雄分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行港都分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行三多分行</t>
+  </si>
+  <si>
+    <t>高雄銀行灣內分行</t>
+  </si>
+  <si>
+    <t>華美銀行</t>
+  </si>
+  <si>
+    <t>復華銀行前鎮收付處</t>
+  </si>
+  <si>
+    <t>大眾商業銀行營業部</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行高雄分行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行三多分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行前鎮分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行前鎮分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行前鎮分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行高雄分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行港都分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行三多分行</t>
-  </si>
-  <si>
-    <t>高雄銀行灣內分行</t>
-  </si>
-  <si>
-    <t>華美銀行</t>
-  </si>
-  <si>
-    <t>復華銀行前鎮收付處</t>
-  </si>
-  <si>
-    <t>大眾商業銀行營業部</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行高雄分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -339,19 +348,13 @@
     <t>桌津鈴</t>
   </si>
   <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>4090</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>神達電腦公司</t>
@@ -2507,13 +2510,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>81</v>
       </c>
@@ -2524,686 +2527,1302 @@
         <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>253340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>253340</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>4090</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>490800</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+        <v>108</v>
+      </c>
+      <c r="F5" s="2">
         <v>55366</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>108393</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2">
+        <v>66164</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="2">
         <v>82</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>66164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="2">
-        <v>1902</v>
-      </c>
-      <c r="G8" s="2">
         <v>57060</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>34281</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>3800000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>758</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>7504</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2">
+        <v>55290</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="2">
         <v>88</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1843</v>
-      </c>
-      <c r="G13" s="2">
-        <v>55290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="2">
-        <v>71</v>
-      </c>
-      <c r="G14" s="2">
         <v>1988</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="2">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>12178</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="2">
-        <v>26054</v>
-      </c>
-      <c r="G17" s="2">
         <v>781620</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="2">
-        <v>50000</v>
-      </c>
-      <c r="G18" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="2">
-        <v>286</v>
-      </c>
-      <c r="G20" s="2">
         <v>8580</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="2">
-        <v>4272</v>
-      </c>
-      <c r="G21" s="2">
         <v>128160</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2">
+        <v>105651</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="2">
         <v>98</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2709</v>
-      </c>
-      <c r="G22" s="2">
-        <v>105651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="2">
+        <v>33088</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="2">
         <v>99</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>33088</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>100</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>14892</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>20089</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>125564</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="2">
-        <v>50908</v>
-      </c>
-      <c r="G27" s="2">
         <v>1572240</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="2">
-        <v>370</v>
-      </c>
-      <c r="G28" s="2">
         <v>11100</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>105</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2">
+      <c r="F29" s="2">
         <v>30535</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2">
+      <c r="F30" s="2">
         <v>21572</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>107</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2">
+      <c r="F31" s="2">
         <v>36046</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>108</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
+      <c r="F32" s="2">
         <v>75804</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3227,13 +3846,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3265,7 +3884,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -3277,13 +3896,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2">
         <v>159410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>64</v>
@@ -3309,7 +3928,7 @@
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -3321,13 +3940,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2">
         <v>158880</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>64</v>
@@ -3363,10 +3982,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
@@ -3377,10 +3996,10 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
@@ -3391,10 +4010,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
@@ -3405,10 +4024,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
@@ -3419,10 +4038,10 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
@@ -3433,10 +4052,10 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -3447,10 +4066,10 @@
         <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -3461,10 +4080,10 @@
         <v>146</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
@@ -3475,10 +4094,10 @@
         <v>147</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>40</v>
@@ -3489,10 +4108,10 @@
         <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>40</v>
@@ -3503,10 +4122,10 @@
         <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>40</v>
@@ -3517,10 +4136,10 @@
         <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
@@ -3531,10 +4150,10 @@
         <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
@@ -3545,10 +4164,10 @@
         <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>40</v>
@@ -3569,22 +4188,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1">
         <v>14747796</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3592,22 +4211,22 @@
         <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2">
         <v>14747796</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
+++ b/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
@@ -195,7 +195,7 @@
     <t>拍賣</t>
   </si>
   <si>
-    <t>1T1t■■■.■■!.貝買</t>
+    <t>1T1t.!.貝買</t>
   </si>
   <si>
     <t>r=±=*貝買</t>
@@ -258,7 +258,7 @@
     <t>民國100年12月</t>
   </si>
   <si>
-    <t>Mft■■11:■貝買</t>
+    <t>Mft11:貝買</t>
   </si>
   <si>
     <t>building</t>

--- a/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
+++ b/legislator/property/output/normal/葉津鈴_2013-09-15_財產申報表_tmp9f521.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="144">
   <si>
     <t>name</t>
   </si>
@@ -366,36 +366,39 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>大都會國際人壽</t>
+  </si>
+  <si>
+    <t>中國信託人壽</t>
+  </si>
+  <si>
+    <t>臺銀人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>全球人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>法國巴黎人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
     <t>百年長青終身壽險</t>
   </si>
   <si>
-    <t>大都會國際人壽</t>
-  </si>
-  <si>
-    <t>中國信託人壽</t>
-  </si>
-  <si>
-    <t>臺銀人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>全球人壽</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>法國巴黎人壽</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
     <t>防癌終身壽險</t>
   </si>
   <si>
@@ -426,6 +429,15 @@
     <t>一路發保險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -436,6 +448,9 @@
   </si>
   <si>
     <t>購屋貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -3974,80 +3989,185 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>144</v>
       </c>
@@ -4055,13 +4175,34 @@
         <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>145</v>
       </c>
@@ -4069,13 +4210,34 @@
         <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>146</v>
       </c>
@@ -4083,13 +4245,34 @@
         <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>147</v>
       </c>
@@ -4097,13 +4280,34 @@
         <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>148</v>
       </c>
@@ -4111,13 +4315,34 @@
         <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>149</v>
       </c>
@@ -4125,13 +4350,34 @@
         <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>150</v>
       </c>
@@ -4139,13 +4385,34 @@
         <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>151</v>
       </c>
@@ -4153,13 +4420,34 @@
         <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>152</v>
       </c>
@@ -4167,10 +4455,31 @@
         <v>124</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1805</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="2">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4180,53 +4489,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="1">
-        <v>14747796</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2">
         <v>14747796</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1805</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="2">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
